--- a/data/trans_dic/P52_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>66,16%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>21,43%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,02; 89,32</t>
+          <t>2,79; 26,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,94; 88,17</t>
+          <t>2,01; 21,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 100,0</t>
+          <t>15,75; 73,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 89,91</t>
+          <t>0,0; 10,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 74,91</t>
+          <t>5,95; 23,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,69; 81,87</t>
+          <t>1,38; 13,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,7; 83,73</t>
+          <t>2,91; 13,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,08; 73,47</t>
+          <t>6,01; 18,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 91,73</t>
+          <t>7,74; 47,6</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,86; 70,62</t>
+          <t>4,95; 14,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,85; 85,69</t>
+          <t>12,25; 25,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 57,63</t>
+          <t>3,32; 12,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 59,93</t>
+          <t>6,99; 16,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,66; 69,14</t>
+          <t>10,33; 20,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,12; 69,45</t>
+          <t>8,6; 18,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 58,67</t>
+          <t>6,87; 13,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,19; 76,3</t>
+          <t>12,58; 21,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,78; 59,16</t>
+          <t>7,09; 13,6</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,63%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,85; 72,96</t>
+          <t>2,54; 12,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,17; 52,52</t>
+          <t>2,61; 12,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 39,45</t>
+          <t>1,9; 11,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 81,36</t>
+          <t>4,86; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,27; 70,13</t>
+          <t>10,93; 22,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 50,93</t>
+          <t>7,13; 17,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,9; 72,59</t>
+          <t>4,98; 11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,16; 61,04</t>
+          <t>8,48; 16,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 40,91</t>
+          <t>5,68; 12,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,81; 67,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,33; 73,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,76; 57,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,32; 63,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 64,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 58,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,74; 62,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,6; 66,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 54,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 11,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 16,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 21,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 12,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 19,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8,29; 14,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 10,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 16,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14680</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8937</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44741</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14540</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18562</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23477</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50691</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3597; 33839</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2116; 22192</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17970; 83497</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14558</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6871; 26724</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1693; 16269</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7884; 36342</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13272; 40949</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18316; 112593</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38466</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68830</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27465</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50408</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57448</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48513</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>88874</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>126277</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75978</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21269; 62235</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46075; 97204</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13254; 48875</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32445; 76972</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39329; 79925</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32269; 69846</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61376; 122628</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>95265; 161209</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54944; 105344</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19614</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17751</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14615</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36832</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56678</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39050</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56447</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74429</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53665</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8444; 41164</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7362; 36379</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5221; 31942</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20808; 58083</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37666; 77216</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23350; 56948</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37881; 84726</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53178; 103521</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34267; 76076</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72760</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95518</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>86820</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91122</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>128666</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>93515</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>163882</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>224184</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>180335</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50009; 106902</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>66635; 127380</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>51886; 173448</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63001; 126611</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>101668; 162233</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68363; 118155</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126290; 210184</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>184295; 270637</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>141512; 285836</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>